--- a/target/test-classes/testdata/Users.xlsx
+++ b/target/test-classes/testdata/Users.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agilaethiraj/Downloads/ecommerce-automation/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08033E4-EF1E-594B-98FE-C16700933712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8A0181-564F-D349-9873-DE91176D6657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="600" windowWidth="28040" windowHeight="16140" activeTab="1" xr2:uid="{CDF4B042-7ED4-EE4C-A351-0A3EC36FB1D7}"/>
+    <workbookView xWindow="260" yWindow="600" windowWidth="28040" windowHeight="16140" activeTab="3" xr2:uid="{CDF4B042-7ED4-EE4C-A351-0A3EC36FB1D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Profile" sheetId="6" r:id="rId2"/>
-    <sheet name="ProductTitle" sheetId="3" r:id="rId3"/>
-    <sheet name="Limited" sheetId="4" r:id="rId4"/>
-    <sheet name="EdgeCase" sheetId="5" r:id="rId5"/>
-    <sheet name="Usy" sheetId="2" r:id="rId6"/>
+    <sheet name="FakeApi" sheetId="7" r:id="rId3"/>
+    <sheet name="BDDSwagLogin" sheetId="8" r:id="rId4"/>
+    <sheet name="BDDSwagProducts" sheetId="9" r:id="rId5"/>
+    <sheet name="BDDSwagCheckout" sheetId="10" r:id="rId6"/>
+    <sheet name="BDDSwagSorting" sheetId="11" r:id="rId7"/>
+    <sheet name="ProductTitle" sheetId="3" r:id="rId8"/>
+    <sheet name="Limited" sheetId="4" r:id="rId9"/>
+    <sheet name="EdgeCase" sheetId="5" r:id="rId10"/>
+    <sheet name="Usy" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="75">
   <si>
     <t>username</t>
   </si>
@@ -181,6 +186,90 @@
   </si>
   <si>
     <t>short</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Test Product 1</t>
+  </si>
+  <si>
+    <t>This is a test product</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>https://i.pravatar.cc/150?img=1</t>
+  </si>
+  <si>
+    <t>Test Product 2</t>
+  </si>
+  <si>
+    <t>Another test product</t>
+  </si>
+  <si>
+    <t>jewelery</t>
+  </si>
+  <si>
+    <t>https://i.pravatar.cc/150?img=2</t>
+  </si>
+  <si>
+    <t>Test Product 3</t>
+  </si>
+  <si>
+    <t>Sample product</t>
+  </si>
+  <si>
+    <t>https://i.pravatar.cc/150?img=3</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Products Page</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>sortOption</t>
+  </si>
+  <si>
+    <t>Name (A to Z)</t>
+  </si>
+  <si>
+    <t>Name (Z to A)</t>
+  </si>
+  <si>
+    <t>Price (low to high)</t>
+  </si>
+  <si>
+    <t>Price (high to low)</t>
+  </si>
+  <si>
+    <t>problem_user</t>
   </si>
 </sst>
 </file>
@@ -610,11 +699,289 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766CB30E-64EF-D84D-AA30-0D0B367E57EA}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>12345</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>12345</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>12345</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>12345</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>12345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>34565</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>34565</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3F2ACD-EE36-D248-8651-06C25F7DC4A3}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3EE69B-67F9-8D49-A27A-01E501C0A45D}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -729,6 +1096,285 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3488EB1-9A16-0041-9481-D849F894487C}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>29.99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>49.99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446169E4-60DB-2A4A-962C-2E2B66DECA98}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C70DF4-A3DB-0E41-A75A-F2C7737984EC}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3C4AD-CF53-1D40-B4C4-6E8373FBF2A6}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>54321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389174BE-D6C8-EB48-875B-CAADEAF1B139}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAB87A6-5664-4647-8BCC-580329339B93}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -1011,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D53D72A-E6AE-144B-B0F1-BC46CAFC2DFD}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1129,282 +1775,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766CB30E-64EF-D84D-AA30-0D0B367E57EA}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>12345</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>12345</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>12345</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>12345</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>12345</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>34565</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>34565</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3F2ACD-EE36-D248-8651-06C25F7DC4A3}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>